--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-food-allergen-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-food-allergen-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-food-allergen-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-food-allergen-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-food-allergen-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-food-allergen-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
